--- a/data/scheduling_DNN/predict/0.9/result13.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result13.xlsx
@@ -570,10 +570,10 @@
         <v>0.867419958114624</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.5230483412742615</v>
       </c>
       <c r="W2" t="n">
-        <v>0.04617172107100487</v>
+        <v>0.11859180778265</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.8554251194000244</v>
       </c>
       <c r="V3" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.520501971244812</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1329691559076309</v>
+        <v>0.1121735125780106</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.9077110290527344</v>
       </c>
       <c r="V4" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.3991692662239075</v>
       </c>
       <c r="W4" t="n">
-        <v>0.1100194901227951</v>
+        <v>0.258614718914032</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.8789451122283936</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.5229851603507996</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03469020500779152</v>
+        <v>0.1267074942588806</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8622000217437744</v>
       </c>
       <c r="V6" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.5273622870445251</v>
       </c>
       <c r="W6" t="n">
-        <v>0.2615447044372559</v>
+        <v>0.1121163070201874</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8637559413909912</v>
       </c>
       <c r="V7" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.8662413954734802</v>
       </c>
       <c r="W7" t="n">
-        <v>0.2631753087043762</v>
+        <v>6.177482191560557e-06</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.9140341281890869</v>
       </c>
       <c r="V8" t="n">
-        <v>0.417652815580368</v>
+        <v>0.8749576807022095</v>
       </c>
       <c r="W8" t="n">
-        <v>0.2463944107294083</v>
+        <v>0.001526968786492944</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.8797261714935303</v>
       </c>
       <c r="V9" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.4010554552078247</v>
       </c>
       <c r="W9" t="n">
-        <v>0.002073911018669605</v>
+        <v>0.2291256487369537</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8502030372619629</v>
       </c>
       <c r="V10" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.872489869594574</v>
       </c>
       <c r="W10" t="n">
-        <v>0.1061591953039169</v>
+        <v>0.0004967029090039432</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8700261116027832</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8752489686012268</v>
       </c>
       <c r="W11" t="n">
-        <v>0.1331742405891418</v>
+        <v>2.727823448367417e-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.9052560329437256</v>
       </c>
       <c r="V12" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8831679821014404</v>
       </c>
       <c r="W12" t="n">
-        <v>0.09748905897140503</v>
+        <v>0.0004878820036537945</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.855914831161499</v>
       </c>
       <c r="V13" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.8873326182365417</v>
       </c>
       <c r="W13" t="n">
-        <v>0.003078983165323734</v>
+        <v>0.0009870773646980524</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8917369842529297</v>
       </c>
       <c r="V14" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.4003537595272064</v>
       </c>
       <c r="W14" t="n">
-        <v>0.05636716261506081</v>
+        <v>0.2414574772119522</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.8743319511413574</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.5217970609664917</v>
       </c>
       <c r="W15" t="n">
-        <v>0.08887729048728943</v>
+        <v>0.1242808476090431</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8895649909973145</v>
       </c>
       <c r="V16" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.8700639009475708</v>
       </c>
       <c r="W16" t="n">
-        <v>0.007324210368096828</v>
+        <v>0.0003802925057243556</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>0.899616003036499</v>
       </c>
       <c r="V17" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8685352206230164</v>
       </c>
       <c r="W17" t="n">
-        <v>0.1898708939552307</v>
+        <v>0.0009660150390118361</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.9128749370574951</v>
       </c>
       <c r="V18" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.4000298976898193</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1132723987102509</v>
+        <v>0.2630100250244141</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.850132942199707</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.8867068886756897</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1193267554044724</v>
+        <v>0.001337653608061373</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.8759419918060303</v>
       </c>
       <c r="V20" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.5281276106834412</v>
       </c>
       <c r="W20" t="n">
-        <v>0.1235737726092339</v>
+        <v>0.1209748461842537</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8667349815368652</v>
       </c>
       <c r="V21" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.3992522060871124</v>
       </c>
       <c r="W21" t="n">
-        <v>0.04531279951334</v>
+        <v>0.218540146946907</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5328369140625</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.4004404842853546</v>
       </c>
       <c r="W22" t="n">
-        <v>0.07141020148992538</v>
+        <v>0.01752881519496441</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5367081165313721</v>
       </c>
       <c r="V23" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5322027802467346</v>
       </c>
       <c r="W23" t="n">
-        <v>0.01300800777971745</v>
+        <v>2.029805546044372e-05</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.585831880569458</v>
       </c>
       <c r="V24" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.3992126286029816</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02831314504146576</v>
+        <v>0.03482674434781075</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5401909351348877</v>
       </c>
       <c r="V25" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.5182409882545471</v>
       </c>
       <c r="W25" t="n">
-        <v>0.02819962613284588</v>
+        <v>0.0004818001762032509</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5778930187225342</v>
       </c>
       <c r="V26" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.8686552047729492</v>
       </c>
       <c r="W26" t="n">
-        <v>0.05159806832671165</v>
+        <v>0.0845426470041275</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5192298889160156</v>
       </c>
       <c r="V27" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.8559584021568298</v>
       </c>
       <c r="W27" t="n">
-        <v>0.08015935122966766</v>
+        <v>0.1133860945701599</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5319809913635254</v>
       </c>
       <c r="V28" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.5267354846000671</v>
       </c>
       <c r="W28" t="n">
-        <v>0.0258297473192215</v>
+        <v>2.751534157141577e-05</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5468580722808838</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.5213643908500671</v>
       </c>
       <c r="W29" t="n">
-        <v>0.003253028495237231</v>
+        <v>0.0006499277660623193</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.530858039855957</v>
       </c>
       <c r="V30" t="n">
-        <v>0.417630136013031</v>
+        <v>0.3997742235660553</v>
       </c>
       <c r="W30" t="n">
-        <v>0.01282055862247944</v>
+        <v>0.0171829666942358</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5272669792175293</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.8776518702507019</v>
       </c>
       <c r="W31" t="n">
-        <v>0.07693896442651749</v>
+        <v>0.1227695718407631</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.5225701332092285</v>
       </c>
       <c r="V32" t="n">
-        <v>0.405481219291687</v>
+        <v>0.8930234313011169</v>
       </c>
       <c r="W32" t="n">
-        <v>0.01370981335639954</v>
+        <v>0.1372356414794922</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5110318660736084</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.5655813217163086</v>
       </c>
       <c r="W33" t="n">
-        <v>0.03541623428463936</v>
+        <v>0.002975643146783113</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5161008834838867</v>
       </c>
       <c r="V34" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.4006861746311188</v>
       </c>
       <c r="W34" t="n">
-        <v>0.1037396043539047</v>
+        <v>0.01332055497914553</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5265629291534424</v>
       </c>
       <c r="V35" t="n">
-        <v>0.708076536655426</v>
+        <v>0.5227078795433044</v>
       </c>
       <c r="W35" t="n">
-        <v>0.03294719010591507</v>
+        <v>1.486140718043316e-05</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5216948986053467</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.5179018974304199</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02240773849189281</v>
+        <v>1.43868583108997e-05</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5152590274810791</v>
       </c>
       <c r="V37" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.5233179926872253</v>
       </c>
       <c r="W37" t="n">
-        <v>0.2123352587223053</v>
+        <v>6.494692206615582e-05</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5138399600982666</v>
       </c>
       <c r="V38" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.4025826752185822</v>
       </c>
       <c r="W38" t="n">
-        <v>0.003888864768669009</v>
+        <v>0.01237818319350481</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5079770088195801</v>
       </c>
       <c r="V39" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.4020769894123077</v>
       </c>
       <c r="W39" t="n">
-        <v>1.161253385362215e-05</v>
+        <v>0.01121481414884329</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5681521892547607</v>
       </c>
       <c r="V40" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8670808672904968</v>
       </c>
       <c r="W40" t="n">
-        <v>0.05396563559770584</v>
+        <v>0.08935835212469101</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5325798988342285</v>
       </c>
       <c r="V41" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.8708205819129944</v>
       </c>
       <c r="W41" t="n">
-        <v>0.0007595698116347194</v>
+        <v>0.1144067570567131</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.4025321006774902</v>
       </c>
       <c r="V42" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.4004363715648651</v>
       </c>
       <c r="W42" t="n">
-        <v>0.1901914775371552</v>
+        <v>4.392080427351175e-06</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.4053730964660645</v>
       </c>
       <c r="V43" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5615114569664001</v>
       </c>
       <c r="W43" t="n">
-        <v>0.01426160428673029</v>
+        <v>0.02437918819487095</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3800070285797119</v>
       </c>
       <c r="V44" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8761743903160095</v>
       </c>
       <c r="W44" t="n">
-        <v>0.3547633588314056</v>
+        <v>0.2461820542812347</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3868329524993896</v>
       </c>
       <c r="V45" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.522554337978363</v>
       </c>
       <c r="W45" t="n">
-        <v>0.07111708074808121</v>
+        <v>0.01842029392719269</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.4187939167022705</v>
       </c>
       <c r="V46" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.3992039561271667</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01145129464566708</v>
+        <v>0.0003837665426544845</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.4050509929656982</v>
       </c>
       <c r="V47" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.5229666829109192</v>
       </c>
       <c r="W47" t="n">
-        <v>0.007282812613993883</v>
+        <v>0.01390410959720612</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.389564037322998</v>
       </c>
       <c r="V48" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8833289742469788</v>
       </c>
       <c r="W48" t="n">
-        <v>0.0100346589460969</v>
+        <v>0.2438038140535355</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.38519287109375</v>
       </c>
       <c r="V49" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.8663115501403809</v>
       </c>
       <c r="W49" t="n">
-        <v>0.173750177025795</v>
+        <v>0.2314751893281937</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3868429660797119</v>
       </c>
       <c r="V50" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.4021628797054291</v>
       </c>
       <c r="W50" t="n">
-        <v>0.001302756019867957</v>
+        <v>0.000234699749853462</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3819510936737061</v>
       </c>
       <c r="V51" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.4025239944458008</v>
       </c>
       <c r="W51" t="n">
-        <v>0.001219375641085207</v>
+        <v>0.0004232442588545382</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3930759429931641</v>
       </c>
       <c r="V52" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.3993003368377686</v>
       </c>
       <c r="W52" t="n">
-        <v>0.005001683253794909</v>
+        <v>3.874307731166482e-05</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3866920471191406</v>
       </c>
       <c r="V53" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.3997940421104431</v>
       </c>
       <c r="W53" t="n">
-        <v>0.07135682553052902</v>
+        <v>0.0001716622791718692</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3857598304748535</v>
       </c>
       <c r="V54" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.3992191553115845</v>
       </c>
       <c r="W54" t="n">
-        <v>0.1729128658771515</v>
+        <v>0.0001811534311855212</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3874068260192871</v>
       </c>
       <c r="V55" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.4009650349617004</v>
       </c>
       <c r="W55" t="n">
-        <v>0.3455169200897217</v>
+        <v>0.0001838250318542123</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3826160430908203</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.4022537767887115</v>
       </c>
       <c r="W56" t="n">
-        <v>0.07333673536777496</v>
+        <v>0.0003856405965052545</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.3872640132904053</v>
       </c>
       <c r="V57" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.8856536746025085</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1996664553880692</v>
+        <v>0.248392254114151</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3787779808044434</v>
       </c>
       <c r="V58" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.8730475902557373</v>
       </c>
       <c r="W58" t="n">
-        <v>0.03890471905469894</v>
+        <v>0.2443024516105652</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.441910982131958</v>
       </c>
       <c r="V59" t="n">
-        <v>0.975181519985199</v>
+        <v>0.4021166265010834</v>
       </c>
       <c r="W59" t="n">
-        <v>0.2843774557113647</v>
+        <v>0.001583590754307806</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.387160062789917</v>
       </c>
       <c r="V60" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.401026725769043</v>
       </c>
       <c r="W60" t="n">
-        <v>0.0107392705976963</v>
+        <v>0.0001922843366628513</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3864917755126953</v>
       </c>
       <c r="V61" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.5667229294776917</v>
       </c>
       <c r="W61" t="n">
-        <v>0.01077897567301989</v>
+        <v>0.03248326852917671</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8846099376678467</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.3991929292678833</v>
       </c>
       <c r="W62" t="n">
-        <v>0.002552903024479747</v>
+        <v>0.235629677772522</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8591771125793457</v>
       </c>
       <c r="V63" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.5218167901039124</v>
       </c>
       <c r="W63" t="n">
-        <v>0.01366611756384373</v>
+        <v>0.1138119846582413</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.9069371223449707</v>
       </c>
       <c r="V64" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.4021653831005096</v>
       </c>
       <c r="W64" t="n">
-        <v>0.2790667414665222</v>
+        <v>0.2547944784164429</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.8717629909515381</v>
       </c>
       <c r="V65" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.3991932570934296</v>
       </c>
       <c r="W65" t="n">
-        <v>0.1197823882102966</v>
+        <v>0.2233221530914307</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8818800449371338</v>
       </c>
       <c r="V66" t="n">
-        <v>0.802417516708374</v>
+        <v>0.8820998072624207</v>
       </c>
       <c r="W66" t="n">
-        <v>0.00631429348140955</v>
+        <v>4.829547961548997e-08</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.862861156463623</v>
       </c>
       <c r="V67" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8874580264091492</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1141699925065041</v>
+        <v>0.0006050060037523508</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.9229187965393066</v>
       </c>
       <c r="V68" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.4009640514850616</v>
       </c>
       <c r="W68" t="n">
-        <v>0.05293659120798111</v>
+        <v>0.272436797618866</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>0.8638811111450195</v>
       </c>
       <c r="V69" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.5213619470596313</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1149709448218346</v>
+        <v>0.1173193752765656</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8506851196289062</v>
       </c>
       <c r="V70" t="n">
-        <v>0.590633749961853</v>
+        <v>0.399200826883316</v>
       </c>
       <c r="W70" t="n">
-        <v>0.0676267147064209</v>
+        <v>0.2038380652666092</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.8610270023345947</v>
       </c>
       <c r="V71" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.3991872370243073</v>
       </c>
       <c r="W71" t="n">
-        <v>0.02334292978048325</v>
+        <v>0.213295966386795</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.9200329780578613</v>
       </c>
       <c r="V72" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.4003395140171051</v>
       </c>
       <c r="W72" t="n">
-        <v>0.2523657977581024</v>
+        <v>0.2700813412666321</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.8578121662139893</v>
       </c>
       <c r="V73" t="n">
-        <v>0.490833193063736</v>
+        <v>0.5230261087417603</v>
       </c>
       <c r="W73" t="n">
-        <v>0.1346735656261444</v>
+        <v>0.1120817065238953</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8537998199462891</v>
       </c>
       <c r="V74" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.886936366558075</v>
       </c>
       <c r="W74" t="n">
-        <v>0.1080419272184372</v>
+        <v>0.001098030712455511</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8579308986663818</v>
       </c>
       <c r="V75" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.399875283241272</v>
       </c>
       <c r="W75" t="n">
-        <v>0.07132676243782043</v>
+        <v>0.2098149508237839</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.9067189693450928</v>
       </c>
       <c r="V76" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.8781368136405945</v>
       </c>
       <c r="W76" t="n">
-        <v>0.06437627971172333</v>
+        <v>0.0008169396314769983</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8593399524688721</v>
       </c>
       <c r="V77" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.8702565431594849</v>
       </c>
       <c r="W77" t="n">
-        <v>0.1585711687803268</v>
+        <v>0.0001191719493363053</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8497638702392578</v>
       </c>
       <c r="V78" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.4022808372974396</v>
       </c>
       <c r="W78" t="n">
-        <v>0.02008470892906189</v>
+        <v>0.2002410590648651</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8608498573303223</v>
       </c>
       <c r="V79" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.5150321125984192</v>
       </c>
       <c r="W79" t="n">
-        <v>0.02612311206758022</v>
+        <v>0.1195899099111557</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.91255784034729</v>
       </c>
       <c r="V80" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.3997686505317688</v>
       </c>
       <c r="W80" t="n">
-        <v>0.06731270253658295</v>
+        <v>0.2629527449607849</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8637909889221191</v>
       </c>
       <c r="V81" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.8981799483299255</v>
       </c>
       <c r="W81" t="n">
-        <v>0.04427307099103928</v>
+        <v>0.001182600506581366</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5385940074920654</v>
       </c>
       <c r="V82" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.523627758026123</v>
       </c>
       <c r="W82" t="n">
-        <v>0.01462957635521889</v>
+        <v>0.0002239886234747246</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5259819030761719</v>
       </c>
       <c r="V83" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5267215371131897</v>
       </c>
       <c r="W83" t="n">
-        <v>0.03315863013267517</v>
+        <v>5.470585051625676e-07</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5154139995574951</v>
       </c>
       <c r="V84" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.8822259902954102</v>
       </c>
       <c r="W84" t="n">
-        <v>0.1035091280937195</v>
+        <v>0.1345510333776474</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5165121555328369</v>
       </c>
       <c r="V85" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.4000383913516998</v>
       </c>
       <c r="W85" t="n">
-        <v>0.0006809133919887245</v>
+        <v>0.01356613729149103</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5327041149139404</v>
       </c>
       <c r="V86" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.3992033898830414</v>
       </c>
       <c r="W86" t="n">
-        <v>0.01326226256787777</v>
+        <v>0.01782244443893433</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5120220184326172</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.4003313183784485</v>
       </c>
       <c r="W87" t="n">
-        <v>0.006183028686791658</v>
+        <v>0.01247481256723404</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5036618709564209</v>
       </c>
       <c r="V88" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.8695963621139526</v>
       </c>
       <c r="W88" t="n">
-        <v>0.02337267249822617</v>
+        <v>0.1339080482721329</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5049600601196289</v>
       </c>
       <c r="V89" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.3999566435813904</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0002114207454724237</v>
+        <v>0.01102571748197079</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.5657618045806885</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.3992453515529633</v>
       </c>
       <c r="W90" t="n">
-        <v>0.02194376848638058</v>
+        <v>0.02772772870957851</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5219128131866455</v>
       </c>
       <c r="V91" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.8859796524047852</v>
       </c>
       <c r="W91" t="n">
-        <v>0.07998424768447876</v>
+        <v>0.1325446665287018</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.5200090408325195</v>
       </c>
       <c r="V92" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.5181992650032043</v>
       </c>
       <c r="W92" t="n">
-        <v>0.003422032808884978</v>
+        <v>3.275288463555626e-06</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5168218612670898</v>
       </c>
       <c r="V93" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.8902442455291748</v>
       </c>
       <c r="W93" t="n">
-        <v>0.01917327009141445</v>
+        <v>0.1394442766904831</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5125842094421387</v>
       </c>
       <c r="V94" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.4000563621520996</v>
       </c>
       <c r="W94" t="n">
-        <v>0.02594992704689503</v>
+        <v>0.01266251597553492</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5131239891052246</v>
       </c>
       <c r="V95" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.5175639986991882</v>
       </c>
       <c r="W95" t="n">
-        <v>0.02636410295963287</v>
+        <v>1.971368510567117e-05</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5166869163513184</v>
       </c>
       <c r="V96" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.8753842711448669</v>
       </c>
       <c r="W96" t="n">
-        <v>0.003541999729350209</v>
+        <v>0.1286637932062149</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5150530338287354</v>
       </c>
       <c r="V97" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.5160759687423706</v>
       </c>
       <c r="W97" t="n">
-        <v>0.08191496878862381</v>
+        <v>1.04639582332311e-06</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5152809619903564</v>
       </c>
       <c r="V98" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.3999491631984711</v>
       </c>
       <c r="W98" t="n">
-        <v>0.2120276391506195</v>
+        <v>0.01330142375081778</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5159499645233154</v>
       </c>
       <c r="V99" t="n">
-        <v>0.490907609462738</v>
+        <v>0.8831284642219543</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0006271195597946644</v>
+        <v>0.1348200440406799</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.51705002784729</v>
       </c>
       <c r="V100" t="n">
-        <v>0.417632520198822</v>
+        <v>0.3997929394245148</v>
       </c>
       <c r="W100" t="n">
-        <v>0.009883840568363667</v>
+        <v>0.01374922506511211</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5681569576263428</v>
       </c>
       <c r="V101" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.8697109818458557</v>
       </c>
       <c r="W101" t="n">
-        <v>0.03581614792346954</v>
+        <v>0.09093482792377472</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4116418361663818</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.5453335642814636</v>
       </c>
       <c r="W102" t="n">
-        <v>0.006242251954972744</v>
+        <v>0.01787347905337811</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3946218490600586</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.5269429087638855</v>
       </c>
       <c r="W103" t="n">
-        <v>0.01694329455494881</v>
+        <v>0.01750886254012585</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.4080150127410889</v>
       </c>
       <c r="V104" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.8868175148963928</v>
       </c>
       <c r="W104" t="n">
-        <v>0.006866618059575558</v>
+        <v>0.2292518317699432</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4136021137237549</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.5227076411247253</v>
       </c>
       <c r="W105" t="n">
-        <v>0.008506959304213524</v>
+        <v>0.01190401613712311</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3843398094177246</v>
       </c>
       <c r="V106" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.8795717358589172</v>
       </c>
       <c r="W106" t="n">
-        <v>0.1746669858694077</v>
+        <v>0.2452546656131744</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.4400668144226074</v>
       </c>
       <c r="V107" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.5146536827087402</v>
       </c>
       <c r="W107" t="n">
-        <v>0.1329109519720078</v>
+        <v>0.005563200917094946</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.3817679882049561</v>
       </c>
       <c r="V108" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.4009784758090973</v>
       </c>
       <c r="W108" t="n">
-        <v>0.1775370836257935</v>
+        <v>0.0003690428275149316</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3935270309448242</v>
       </c>
       <c r="V109" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.8779420256614685</v>
       </c>
       <c r="W109" t="n">
-        <v>0.0005820261430926621</v>
+        <v>0.234657883644104</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3860769271850586</v>
       </c>
       <c r="V110" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.867499053478241</v>
       </c>
       <c r="W110" t="n">
-        <v>0.01073603425174952</v>
+        <v>0.2317672669887543</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.3852458000183105</v>
       </c>
       <c r="V111" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.5266133546829224</v>
       </c>
       <c r="W111" t="n">
-        <v>0.01104765851050615</v>
+        <v>0.01998478546738625</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.4040000438690186</v>
       </c>
       <c r="V112" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.8769370317459106</v>
       </c>
       <c r="W112" t="n">
-        <v>0.0317658856511116</v>
+        <v>0.2236693948507309</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3897950649261475</v>
       </c>
       <c r="V113" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.8667991161346436</v>
       </c>
       <c r="W113" t="n">
-        <v>0.001524407765828073</v>
+        <v>0.2275328636169434</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.3831589221954346</v>
       </c>
       <c r="V114" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.8670781254768372</v>
       </c>
       <c r="W114" t="n">
-        <v>0.001180199440568686</v>
+        <v>0.2341777980327606</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.38301682472229</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.8755866885185242</v>
       </c>
       <c r="W115" t="n">
-        <v>0.001041119219735265</v>
+        <v>0.2426250725984573</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.3899860382080078</v>
       </c>
       <c r="V116" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.5012983679771423</v>
       </c>
       <c r="W116" t="n">
-        <v>0.3429164290428162</v>
+        <v>0.01239043474197388</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3903141021728516</v>
       </c>
       <c r="V117" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.8749659657478333</v>
       </c>
       <c r="W117" t="n">
-        <v>0.0181862972676754</v>
+        <v>0.2348874360322952</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.4062001705169678</v>
       </c>
       <c r="V118" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.890105664730072</v>
       </c>
       <c r="W118" t="n">
-        <v>0.01806419529020786</v>
+        <v>0.2341645210981369</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3827722072601318</v>
       </c>
       <c r="V119" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5198131203651428</v>
       </c>
       <c r="W119" t="n">
-        <v>0.03739241138100624</v>
+        <v>0.01878021098673344</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4353110790252686</v>
       </c>
       <c r="V120" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.5275936722755432</v>
       </c>
       <c r="W120" t="n">
-        <v>0.02170140109956264</v>
+        <v>0.008516076952219009</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3870539665222168</v>
       </c>
       <c r="V121" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.5284548401832581</v>
       </c>
       <c r="W121" t="n">
-        <v>0.01345894485712051</v>
+        <v>0.01999420672655106</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8736557960510254</v>
       </c>
       <c r="V122" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.4022881686687469</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1682355254888535</v>
+        <v>0.2221874445676804</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9225528240203857</v>
       </c>
       <c r="V123" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.3992089927196503</v>
       </c>
       <c r="W123" t="n">
-        <v>0.2104318886995316</v>
+        <v>0.2738887369632721</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.9412758350372314</v>
       </c>
       <c r="V124" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.4003720581531525</v>
       </c>
       <c r="W124" t="n">
-        <v>0.0585903637111187</v>
+        <v>0.292576938867569</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8774721622467041</v>
       </c>
       <c r="V125" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.520603358745575</v>
       </c>
       <c r="W125" t="n">
-        <v>0.09111170470714569</v>
+        <v>0.1273553371429443</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8695919513702393</v>
       </c>
       <c r="V126" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.5267391800880432</v>
       </c>
       <c r="W126" t="n">
-        <v>0.2476490288972855</v>
+        <v>0.1175480261445045</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.8632478713989258</v>
       </c>
       <c r="V127" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.5230548977851868</v>
       </c>
       <c r="W127" t="n">
-        <v>0.01261622551828623</v>
+        <v>0.1157312616705894</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.9156429767608643</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.4004193842411041</v>
       </c>
       <c r="W128" t="n">
-        <v>0.1697721481323242</v>
+        <v>0.2654553949832916</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8555259704589844</v>
       </c>
       <c r="V129" t="n">
-        <v>0.838257908821106</v>
+        <v>0.5208544731140137</v>
       </c>
       <c r="W129" t="n">
-        <v>0.0002981859433930367</v>
+        <v>0.1120050102472305</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8709549903869629</v>
       </c>
       <c r="V130" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8698095679283142</v>
       </c>
       <c r="W130" t="n">
-        <v>0.1660339534282684</v>
+        <v>1.311992605224077e-06</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8579151630401611</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.5259912014007568</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1242335289716721</v>
+        <v>0.1101735159754753</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.9104230403900146</v>
       </c>
       <c r="V132" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.8645784258842468</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1994567364454269</v>
+        <v>0.002101728692650795</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8818509578704834</v>
       </c>
       <c r="V133" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5141484141349792</v>
       </c>
       <c r="W133" t="n">
-        <v>0.008796943351626396</v>
+        <v>0.1352051645517349</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8586859703063965</v>
       </c>
       <c r="V134" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.5162168145179749</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1354063898324966</v>
+        <v>0.1172851249575615</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8762311935424805</v>
       </c>
       <c r="V135" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.4003555178642273</v>
       </c>
       <c r="W135" t="n">
-        <v>0.2103184908628464</v>
+        <v>0.2264576554298401</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9248521327972412</v>
       </c>
       <c r="V136" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.5321520566940308</v>
       </c>
       <c r="W136" t="n">
-        <v>0.2147452533245087</v>
+        <v>0.1542133539915085</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8648381233215332</v>
       </c>
       <c r="V137" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.4000304043292999</v>
       </c>
       <c r="W137" t="n">
-        <v>0.115616075694561</v>
+        <v>0.2160462141036987</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8571901321411133</v>
       </c>
       <c r="V138" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.8819741606712341</v>
       </c>
       <c r="W138" t="n">
-        <v>0.04135709255933762</v>
+        <v>0.0006142480415292084</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8638780117034912</v>
       </c>
       <c r="V139" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.5263984799385071</v>
       </c>
       <c r="W139" t="n">
-        <v>0.0442487932741642</v>
+        <v>0.1138924360275269</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9216220378875732</v>
       </c>
       <c r="V140" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5070425868034363</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1859778761863708</v>
+        <v>0.1718761175870895</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8655240535736084</v>
       </c>
       <c r="V141" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.4003570079803467</v>
       </c>
       <c r="W141" t="n">
-        <v>0.2272675633430481</v>
+        <v>0.216380387544632</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5325958728790283</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.5223298668861389</v>
       </c>
       <c r="W142" t="n">
-        <v>3.924181874026544e-05</v>
+        <v>0.0001053908781614155</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5176129341125488</v>
       </c>
       <c r="V143" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.5320000648498535</v>
       </c>
       <c r="W143" t="n">
-        <v>0.01854670792818069</v>
+        <v>0.0002069895272143185</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5196959972381592</v>
       </c>
       <c r="V144" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.5156221985816956</v>
       </c>
       <c r="W144" t="n">
-        <v>0.0002300414489582181</v>
+        <v>1.659583540458698e-05</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5674209594726562</v>
       </c>
       <c r="V145" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.3992005884647369</v>
       </c>
       <c r="W145" t="n">
-        <v>0.01072521694004536</v>
+        <v>0.02829809300601482</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5182461738586426</v>
       </c>
       <c r="V146" t="n">
-        <v>0.417653352022171</v>
+        <v>0.5076935291290283</v>
       </c>
       <c r="W146" t="n">
-        <v>0.01011891569942236</v>
+        <v>0.0001113583130063489</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5299820899963379</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.5195521116256714</v>
       </c>
       <c r="W147" t="n">
-        <v>0.002144473372027278</v>
+        <v>0.0001087844502762891</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5291609764099121</v>
       </c>
       <c r="V148" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.3992199003696442</v>
       </c>
       <c r="W148" t="n">
-        <v>0.03143785893917084</v>
+        <v>0.01688468270003796</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5167889595031738</v>
       </c>
       <c r="V149" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.8623747229576111</v>
       </c>
       <c r="W149" t="n">
-        <v>0.002841276815161109</v>
+        <v>0.1194295212626457</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5125491619110107</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.8732882142066956</v>
       </c>
       <c r="W150" t="n">
-        <v>0.006134885363280773</v>
+        <v>0.1301326602697372</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5128631591796875</v>
       </c>
       <c r="V151" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.8758317232131958</v>
       </c>
       <c r="W151" t="n">
-        <v>0.006696406751871109</v>
+        <v>0.1317461729049683</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5138688087463379</v>
       </c>
       <c r="V152" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.8738415241241455</v>
       </c>
       <c r="W152" t="n">
-        <v>0.02625021897256374</v>
+        <v>0.1295803487300873</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5169169902801514</v>
       </c>
       <c r="V153" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.8778056502342224</v>
       </c>
       <c r="W153" t="n">
-        <v>0.0001602279808139428</v>
+        <v>0.1302406191825867</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5151340961456299</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.4004029333591461</v>
       </c>
       <c r="W154" t="n">
-        <v>0.02044965885579586</v>
+        <v>0.01316323969513178</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5114359855651855</v>
       </c>
       <c r="V155" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.5240322351455688</v>
       </c>
       <c r="W155" t="n">
-        <v>0.02582258172333241</v>
+        <v>0.0001586654980201274</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5672039985656738</v>
       </c>
       <c r="V156" t="n">
-        <v>0.503772497177124</v>
+        <v>0.4022619724273682</v>
       </c>
       <c r="W156" t="n">
-        <v>0.00402355520054698</v>
+        <v>0.02720587141811848</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5139780044555664</v>
       </c>
       <c r="V157" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.8748506903648376</v>
       </c>
       <c r="W157" t="n">
-        <v>0.0001499166537541896</v>
+        <v>0.1302291005849838</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5202128887176514</v>
       </c>
       <c r="V158" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.8652107715606689</v>
       </c>
       <c r="W158" t="n">
-        <v>0.07855954766273499</v>
+        <v>0.1190235391259193</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5174028873443604</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.5310867428779602</v>
       </c>
       <c r="W159" t="n">
-        <v>0.0001557137147756293</v>
+        <v>0.0001872479042503983</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.517078161239624</v>
       </c>
       <c r="V160" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.4003749787807465</v>
       </c>
       <c r="W160" t="n">
-        <v>0.006028691306710243</v>
+        <v>0.01361963246017694</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5246851444244385</v>
       </c>
       <c r="V161" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.8680698275566101</v>
       </c>
       <c r="W161" t="n">
-        <v>0.004039965569972992</v>
+        <v>0.1179130375385284</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3922491073608398</v>
       </c>
       <c r="V162" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.4004097878932953</v>
       </c>
       <c r="W162" t="n">
-        <v>0.06819041818380356</v>
+        <v>6.659670907538384e-05</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3899219036102295</v>
       </c>
       <c r="V163" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.8742037415504456</v>
       </c>
       <c r="W163" t="n">
-        <v>0.01821711286902428</v>
+        <v>0.2345288991928101</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3867809772491455</v>
       </c>
       <c r="V164" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.8810444474220276</v>
       </c>
       <c r="W164" t="n">
-        <v>0.01899070665240288</v>
+        <v>0.2442963719367981</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3911268711090088</v>
       </c>
       <c r="V165" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.3993232250213623</v>
       </c>
       <c r="W165" t="n">
-        <v>0.09095050394535065</v>
+        <v>6.718021904816851e-05</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.3830370903015137</v>
       </c>
       <c r="V166" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.3999383151531219</v>
       </c>
       <c r="W166" t="n">
-        <v>0.001198758138343692</v>
+        <v>0.0002856513892766088</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3917679786682129</v>
       </c>
       <c r="V167" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.3991978466510773</v>
       </c>
       <c r="W167" t="n">
-        <v>0.09453543275594711</v>
+        <v>5.520293780136853e-05</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3826639652252197</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.8611368536949158</v>
       </c>
       <c r="W168" t="n">
-        <v>0.001222468446940184</v>
+        <v>0.2289362996816635</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3930690288543701</v>
       </c>
       <c r="V169" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.5092225670814514</v>
       </c>
       <c r="W169" t="n">
-        <v>0.06770604103803635</v>
+        <v>0.01349164452403784</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3894410133361816</v>
       </c>
       <c r="V170" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8780553936958313</v>
       </c>
       <c r="W170" t="n">
-        <v>0.0007898402400314808</v>
+        <v>0.2387440055608749</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3869819641113281</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.8746870756149292</v>
       </c>
       <c r="W171" t="n">
-        <v>0.0138009013608098</v>
+        <v>0.2378562688827515</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.3998539447784424</v>
       </c>
       <c r="V172" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.4009472131729126</v>
       </c>
       <c r="W172" t="n">
-        <v>0.1637925505638123</v>
+        <v>1.195235768136627e-06</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3850870132446289</v>
       </c>
       <c r="V173" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.5209223628044128</v>
       </c>
       <c r="W173" t="n">
-        <v>0.2082697600126266</v>
+        <v>0.01845124177634716</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.4390518665313721</v>
       </c>
       <c r="V174" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.8666659593582153</v>
       </c>
       <c r="W174" t="n">
-        <v>0.1525671184062958</v>
+        <v>0.1828538179397583</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3930079936981201</v>
       </c>
       <c r="V175" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5233080387115479</v>
       </c>
       <c r="W175" t="n">
-        <v>0.0173274464905262</v>
+        <v>0.01697810180485249</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3845539093017578</v>
       </c>
       <c r="V176" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.4003874361515045</v>
       </c>
       <c r="W176" t="n">
-        <v>0.00114169716835022</v>
+        <v>0.0002507005701772869</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.3973619937896729</v>
       </c>
       <c r="V177" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.400043398141861</v>
       </c>
       <c r="W177" t="n">
-        <v>0.1624940484762192</v>
+        <v>7.189929419837426e-06</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3930091857910156</v>
       </c>
       <c r="V178" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.5235844254493713</v>
       </c>
       <c r="W178" t="n">
-        <v>0.001785234315320849</v>
+        <v>0.01704989373683929</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3918261528015137</v>
       </c>
       <c r="V179" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8750525712966919</v>
       </c>
       <c r="W179" t="n">
-        <v>0.009780800901353359</v>
+        <v>0.2335077673196793</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4351451396942139</v>
       </c>
       <c r="V180" t="n">
-        <v>0.652911365032196</v>
+        <v>0.4001852571964264</v>
       </c>
       <c r="W180" t="n">
-        <v>0.0474221296608448</v>
+        <v>0.001222193357534707</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.409466028213501</v>
       </c>
       <c r="V181" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.4003554582595825</v>
       </c>
       <c r="W181" t="n">
-        <v>0.1546507030725479</v>
+        <v>8.300248737214133e-05</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8682320117950439</v>
       </c>
       <c r="V182" t="n">
-        <v>0.801636278629303</v>
+        <v>0.5229167342185974</v>
       </c>
       <c r="W182" t="n">
-        <v>0.004434991627931595</v>
+        <v>0.1192426383495331</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.9088780879974365</v>
       </c>
       <c r="V183" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.3991809487342834</v>
       </c>
       <c r="W183" t="n">
-        <v>0.106456384062767</v>
+        <v>0.2597911655902863</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.8797550201416016</v>
       </c>
       <c r="V184" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8635013103485107</v>
       </c>
       <c r="W184" t="n">
-        <v>0.2135557681322098</v>
+        <v>0.0002641830942593515</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8760921955108643</v>
       </c>
       <c r="V185" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.4004411697387695</v>
       </c>
       <c r="W185" t="n">
-        <v>0.1702393293380737</v>
+        <v>0.2262438982725143</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.86456298828125</v>
       </c>
       <c r="V186" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.4022383689880371</v>
       </c>
       <c r="W186" t="n">
-        <v>0.2433359771966934</v>
+        <v>0.2137440592050552</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8663771152496338</v>
       </c>
       <c r="V187" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.5099227428436279</v>
       </c>
       <c r="W187" t="n">
-        <v>0.03243447095155716</v>
+        <v>0.1270597130060196</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.8641040325164795</v>
       </c>
       <c r="V188" t="n">
-        <v>0.653571605682373</v>
+        <v>0.8891457915306091</v>
       </c>
       <c r="W188" t="n">
-        <v>0.04432390257716179</v>
+        <v>0.0006270896992646158</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8620679378509521</v>
       </c>
       <c r="V189" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.8842929005622864</v>
       </c>
       <c r="W189" t="n">
-        <v>0.1604325026273727</v>
+        <v>0.0004939489881508052</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8663761615753174</v>
       </c>
       <c r="V190" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.3992400467395782</v>
       </c>
       <c r="W190" t="n">
-        <v>0.2443967312574387</v>
+        <v>0.2182161509990692</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8930869102478027</v>
       </c>
       <c r="V191" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.4020765721797943</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2260501831769943</v>
+        <v>0.2410911470651627</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.8557498455047607</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.5036884546279907</v>
       </c>
       <c r="W192" t="n">
-        <v>0.1331433057785034</v>
+        <v>0.1239472255110741</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8668379783630371</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.5278280973434448</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1318348944187164</v>
+        <v>0.11492770165205</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8626399040222168</v>
       </c>
       <c r="V194" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.8745889663696289</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2620211839675903</v>
+        <v>0.0001427800889359787</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8627820014953613</v>
       </c>
       <c r="V195" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.5118436217308044</v>
       </c>
       <c r="W195" t="n">
-        <v>0.2239384800195694</v>
+        <v>0.1231577470898628</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.8614740371704102</v>
       </c>
       <c r="V196" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.3992401957511902</v>
       </c>
       <c r="W196" t="n">
-        <v>0.043319933116436</v>
+        <v>0.2136601209640503</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.8652498722076416</v>
       </c>
       <c r="V197" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.5287609100341797</v>
       </c>
       <c r="W197" t="n">
-        <v>0.04540828987956047</v>
+        <v>0.1132248193025589</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8674049377441406</v>
       </c>
       <c r="V198" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.8875584006309509</v>
       </c>
       <c r="W198" t="n">
-        <v>0.2455357611179352</v>
+        <v>0.0004061620566062629</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.8628010749816895</v>
       </c>
       <c r="V199" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.5197303295135498</v>
       </c>
       <c r="W199" t="n">
-        <v>0.1549177169799805</v>
+        <v>0.117697536945343</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.8531899452209473</v>
       </c>
       <c r="V200" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.5268285870552063</v>
       </c>
       <c r="W200" t="n">
-        <v>0.01496664341539145</v>
+        <v>0.1065117344260216</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8850200176239014</v>
       </c>
       <c r="V201" t="n">
-        <v>0.417663037776947</v>
+        <v>0.8668013215065002</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2184225469827652</v>
+        <v>0.0003319208917673677</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.518841028213501</v>
       </c>
       <c r="V202" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.520840585231781</v>
       </c>
       <c r="W202" t="n">
-        <v>0.02804625406861305</v>
+        <v>3.998228294221917e-06</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5061159133911133</v>
       </c>
       <c r="V203" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.8701562285423279</v>
       </c>
       <c r="W203" t="n">
-        <v>0.02184456586837769</v>
+        <v>0.1325253546237946</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5234968662261963</v>
       </c>
       <c r="V204" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8721057176589966</v>
       </c>
       <c r="W204" t="n">
-        <v>0.02984282933175564</v>
+        <v>0.1215281337499619</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5126559734344482</v>
       </c>
       <c r="V205" t="n">
-        <v>0.490329772233963</v>
+        <v>0.5307098627090454</v>
       </c>
       <c r="W205" t="n">
-        <v>0.0004984592669643462</v>
+        <v>0.0003259429067838937</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5182609558105469</v>
       </c>
       <c r="V206" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.8686544299125671</v>
       </c>
       <c r="W206" t="n">
-        <v>0.0040843291208148</v>
+        <v>0.1227755844593048</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5213098526000977</v>
       </c>
       <c r="V207" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.4001657068729401</v>
       </c>
       <c r="W207" t="n">
-        <v>1.200661608891096e-05</v>
+        <v>0.01467590406537056</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5172619819641113</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.5261591076850891</v>
       </c>
       <c r="W208" t="n">
-        <v>0.000698473013471812</v>
+        <v>7.915884634712711e-05</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5335760116577148</v>
       </c>
       <c r="V209" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.8736293911933899</v>
       </c>
       <c r="W209" t="n">
-        <v>0.01343652233481407</v>
+        <v>0.1156363040208817</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.515449047088623</v>
       </c>
       <c r="V210" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.4010319113731384</v>
       </c>
       <c r="W210" t="n">
-        <v>0.01909684762358665</v>
+        <v>0.01309128105640411</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5734670162200928</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.8731092810630798</v>
       </c>
       <c r="W211" t="n">
-        <v>0.02427894808351994</v>
+        <v>0.08978548645973206</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5208618640899658</v>
       </c>
       <c r="V212" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.4003730416297913</v>
       </c>
       <c r="W212" t="n">
-        <v>0.000915137177798897</v>
+        <v>0.01451755594462156</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5110840797424316</v>
       </c>
       <c r="V213" t="n">
-        <v>0.802345335483551</v>
+        <v>0.523718535900116</v>
       </c>
       <c r="W213" t="n">
-        <v>0.08483312278985977</v>
+        <v>0.0001596294896444306</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.5148739814758301</v>
       </c>
       <c r="V214" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.8757309317588806</v>
       </c>
       <c r="W214" t="n">
-        <v>0.1016660332679749</v>
+        <v>0.1302177459001541</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5222499370574951</v>
       </c>
       <c r="V215" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.8666302561759949</v>
       </c>
       <c r="W215" t="n">
-        <v>0.0002941117563750595</v>
+        <v>0.1185978055000305</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5418360233306885</v>
       </c>
       <c r="V216" t="n">
-        <v>0.975210964679718</v>
+        <v>0.5220519304275513</v>
       </c>
       <c r="W216" t="n">
-        <v>0.1878138333559036</v>
+        <v>0.0003914103435818106</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.515923023223877</v>
       </c>
       <c r="V217" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.4003845751285553</v>
       </c>
       <c r="W217" t="n">
-        <v>0.2109283804893494</v>
+        <v>0.0133491326123476</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.5280001163482666</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.870919406414032</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01576442644000053</v>
+        <v>0.1175936385989189</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.5219769477844238</v>
       </c>
       <c r="V219" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.5185346007347107</v>
       </c>
       <c r="W219" t="n">
-        <v>0.09468188136816025</v>
+        <v>1.184975280921208e-05</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5206429958343506</v>
       </c>
       <c r="V220" t="n">
-        <v>0.653493344783783</v>
+        <v>0.5115786790847778</v>
       </c>
       <c r="W220" t="n">
-        <v>0.01764921471476555</v>
+        <v>8.216183778131381e-05</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.518092155456543</v>
       </c>
       <c r="V221" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.3992091715335846</v>
       </c>
       <c r="W221" t="n">
-        <v>0.2092946171760559</v>
+        <v>0.01413316372781992</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.4146270751953125</v>
       </c>
       <c r="V222" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.523304283618927</v>
       </c>
       <c r="W222" t="n">
-        <v>0.0834985226392746</v>
+        <v>0.0118107357993722</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3879330158233643</v>
       </c>
       <c r="V223" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.3997722566127777</v>
       </c>
       <c r="W223" t="n">
-        <v>0.3453453481197357</v>
+        <v>0.0001401676272507757</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3930668830871582</v>
       </c>
       <c r="V224" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.400347501039505</v>
       </c>
       <c r="W224" t="n">
-        <v>0.1659527719020844</v>
+        <v>5.300739940139465e-05</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.3895318508148193</v>
       </c>
       <c r="V225" t="n">
-        <v>0.372467577457428</v>
+        <v>0.3999489843845367</v>
       </c>
       <c r="W225" t="n">
-        <v>0.0002911894116550684</v>
+        <v>0.0001085166732082143</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3918609619140625</v>
       </c>
       <c r="V226" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.5227692127227783</v>
       </c>
       <c r="W226" t="n">
-        <v>0.06912630796432495</v>
+        <v>0.01713697053492069</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.3962280750274658</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.4004205167293549</v>
       </c>
       <c r="W227" t="n">
-        <v>0.0005822821403853595</v>
+        <v>1.757656718837097e-05</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.4477319717407227</v>
       </c>
       <c r="V228" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.8930909037590027</v>
       </c>
       <c r="W228" t="n">
-        <v>0.004828775301575661</v>
+        <v>0.1983445733785629</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.404620885848999</v>
       </c>
       <c r="V229" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.4000415205955505</v>
       </c>
       <c r="W229" t="n">
-        <v>0.009935449808835983</v>
+        <v>2.097058677463792e-05</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3943550586700439</v>
       </c>
       <c r="V230" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.8640611171722412</v>
       </c>
       <c r="W230" t="n">
-        <v>0.00701803807169199</v>
+        <v>0.2206237763166428</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3890430927276611</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.5251619219779968</v>
       </c>
       <c r="W231" t="n">
-        <v>0.03503826633095741</v>
+        <v>0.01852833479642868</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4087469577789307</v>
       </c>
       <c r="V232" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.3998707830905914</v>
       </c>
       <c r="W232" t="n">
-        <v>7.891721179476008e-05</v>
+        <v>7.878647738834843e-05</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.459446907043457</v>
       </c>
       <c r="V233" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.3991990387439728</v>
       </c>
       <c r="W233" t="n">
-        <v>0.007820289582014084</v>
+        <v>0.003629805520176888</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.4955809116363525</v>
       </c>
       <c r="V234" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.8706457018852234</v>
       </c>
       <c r="W234" t="n">
-        <v>0.0009112196275964379</v>
+        <v>0.1406735926866531</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.4141709804534912</v>
       </c>
       <c r="V235" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.8731082081794739</v>
       </c>
       <c r="W235" t="n">
-        <v>0.08375973254442215</v>
+        <v>0.2106233835220337</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.42547607421875</v>
       </c>
       <c r="V236" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.3991780579090118</v>
       </c>
       <c r="W236" t="n">
-        <v>0.004227022174745798</v>
+        <v>0.0006915856502018869</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3848140239715576</v>
       </c>
       <c r="V237" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.8785250782966614</v>
       </c>
       <c r="W237" t="n">
-        <v>0.001108690397813916</v>
+        <v>0.2437506020069122</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.38555908203125</v>
       </c>
       <c r="V238" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.5228549838066101</v>
       </c>
       <c r="W238" t="n">
-        <v>0.00576128764078021</v>
+        <v>0.01885016448795795</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3895440101623535</v>
       </c>
       <c r="V239" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.8666980266571045</v>
       </c>
       <c r="W239" t="n">
-        <v>0.0003105892974417657</v>
+        <v>0.2276759594678879</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.399630069732666</v>
       </c>
       <c r="V240" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.5154562592506409</v>
       </c>
       <c r="W240" t="n">
-        <v>0.03340287506580353</v>
+        <v>0.01341570634394884</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.4002130031585693</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.4003705382347107</v>
       </c>
       <c r="W241" t="n">
-        <v>0.06395741552114487</v>
+        <v>2.481730021486328e-08</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8866128921508789</v>
       </c>
       <c r="V242" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.8805453777313232</v>
       </c>
       <c r="W242" t="n">
-        <v>0.145705834031105</v>
+        <v>3.681473026517779e-05</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8982641696929932</v>
       </c>
       <c r="V243" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.5231978297233582</v>
       </c>
       <c r="W243" t="n">
-        <v>0.3038519024848938</v>
+        <v>0.1406747549772263</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.8848788738250732</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.4009402990341187</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1298146396875381</v>
+        <v>0.2341965436935425</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.888768196105957</v>
       </c>
       <c r="V245" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.5208452939987183</v>
       </c>
       <c r="W245" t="n">
-        <v>0.2884621620178223</v>
+        <v>0.1353672593832016</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8687000274658203</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5460062026977539</v>
       </c>
       <c r="W246" t="n">
-        <v>0.2035927474498749</v>
+        <v>0.1041313037276268</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.9648301601409912</v>
       </c>
       <c r="V247" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.3992267549037933</v>
       </c>
       <c r="W247" t="n">
-        <v>0.0001159022576757707</v>
+        <v>0.3199071884155273</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.8653190135955811</v>
       </c>
       <c r="V248" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.4010236859321594</v>
       </c>
       <c r="W248" t="n">
-        <v>0.2647633850574493</v>
+        <v>0.2155701518058777</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.9004149436950684</v>
       </c>
       <c r="V249" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.4009754657745361</v>
       </c>
       <c r="W249" t="n">
-        <v>0.00567298661917448</v>
+        <v>0.2494397908449173</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8592770099639893</v>
       </c>
       <c r="V250" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.400976151227951</v>
       </c>
       <c r="W250" t="n">
-        <v>0.003181350184604526</v>
+        <v>0.2100396752357483</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8892190456390381</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.5093328356742859</v>
       </c>
       <c r="W251" t="n">
-        <v>0.05500369146466255</v>
+        <v>0.1443135291337967</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.889707088470459</v>
       </c>
       <c r="V252" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.8690569996833801</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1590084880590439</v>
+        <v>0.0004264261806383729</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8901798725128174</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.5119314193725586</v>
       </c>
       <c r="W253" t="n">
-        <v>0.09465624392032623</v>
+        <v>0.1430718898773193</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8699448108673096</v>
       </c>
       <c r="V254" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8763353228569031</v>
       </c>
       <c r="W254" t="n">
-        <v>0.2482101321220398</v>
+        <v>4.083864405401982e-05</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8666360378265381</v>
       </c>
       <c r="V255" t="n">
-        <v>0.654336154460907</v>
+        <v>0.5186171531677246</v>
       </c>
       <c r="W255" t="n">
-        <v>0.04507124051451683</v>
+        <v>0.1211171448230743</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9057080745697021</v>
       </c>
       <c r="V256" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.5066661834716797</v>
       </c>
       <c r="W256" t="n">
-        <v>0.1015213802456856</v>
+        <v>0.1592344343662262</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8726089000701904</v>
       </c>
       <c r="V257" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.5236468315124512</v>
       </c>
       <c r="W257" t="n">
-        <v>0.2070013880729675</v>
+        <v>0.1217745244503021</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8599560260772705</v>
       </c>
       <c r="V258" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.513494610786438</v>
       </c>
       <c r="W258" t="n">
-        <v>0.1124896332621574</v>
+        <v>0.1200355142354965</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8752288818359375</v>
       </c>
       <c r="V259" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.4003830552101135</v>
       </c>
       <c r="W259" t="n">
-        <v>0.2466605454683304</v>
+        <v>0.2254785597324371</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9284148216247559</v>
       </c>
       <c r="V260" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5205546021461487</v>
       </c>
       <c r="W260" t="n">
-        <v>0.3379022181034088</v>
+        <v>0.1663499623537064</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8699889183044434</v>
       </c>
       <c r="V261" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.5226467251777649</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2695820927619934</v>
+        <v>0.120646595954895</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5303249359130859</v>
       </c>
       <c r="V262" t="n">
-        <v>0.655465304851532</v>
+        <v>0.4000339508056641</v>
       </c>
       <c r="W262" t="n">
-        <v>0.01566011272370815</v>
+        <v>0.01697573997080326</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5547659397125244</v>
       </c>
       <c r="V263" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.8782950043678284</v>
       </c>
       <c r="W263" t="n">
-        <v>0.008270582184195518</v>
+        <v>0.1046710535883904</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5241129398345947</v>
       </c>
       <c r="V264" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.3992057740688324</v>
       </c>
       <c r="W264" t="n">
-        <v>0.0003570762346498668</v>
+        <v>0.01560179982334375</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5815720558166504</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.4009463787078857</v>
       </c>
       <c r="W265" t="n">
-        <v>3.047222162422258e-05</v>
+        <v>0.03262563422322273</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5247659683227539</v>
       </c>
       <c r="V266" t="n">
-        <v>0.576347291469574</v>
+        <v>0.8778505325317383</v>
       </c>
       <c r="W266" t="n">
-        <v>0.002660632831975818</v>
+        <v>0.1246687099337578</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.5425310134887695</v>
       </c>
       <c r="V267" t="n">
-        <v>0.371780127286911</v>
+        <v>0.8771350979804993</v>
       </c>
       <c r="W267" t="n">
-        <v>0.02915586531162262</v>
+        <v>0.1119598969817162</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5219049453735352</v>
       </c>
       <c r="V268" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5226472616195679</v>
       </c>
       <c r="W268" t="n">
-        <v>0.01727405562996864</v>
+        <v>5.510333949132473e-07</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5171370506286621</v>
       </c>
       <c r="V269" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.8867544531822205</v>
       </c>
       <c r="W269" t="n">
-        <v>0.009894599206745625</v>
+        <v>0.1366170197725296</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.521557092666626</v>
       </c>
       <c r="V270" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.5180401206016541</v>
       </c>
       <c r="W270" t="n">
-        <v>0.01762279309332371</v>
+        <v>1.236909247381845e-05</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5325229167938232</v>
       </c>
       <c r="V271" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.527680516242981</v>
       </c>
       <c r="W271" t="n">
-        <v>0.02376989834010601</v>
+        <v>2.344884342164733e-05</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5438649654388428</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.8651954531669617</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01188468374311924</v>
+        <v>0.1032532826066017</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5193400382995605</v>
       </c>
       <c r="V273" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.4003488123416901</v>
       </c>
       <c r="W273" t="n">
-        <v>0.003343378892168403</v>
+        <v>0.01415891200304031</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5411560535430908</v>
       </c>
       <c r="V274" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.4025033414363861</v>
       </c>
       <c r="W274" t="n">
-        <v>0.01221494842320681</v>
+        <v>0.01922457478940487</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5221030712127686</v>
       </c>
       <c r="V275" t="n">
-        <v>0.505433976650238</v>
+        <v>0.3998744189739227</v>
       </c>
       <c r="W275" t="n">
-        <v>0.0002778587222564965</v>
+        <v>0.01493984367698431</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.571307897567749</v>
       </c>
       <c r="V276" t="n">
-        <v>0.35074183344841</v>
+        <v>0.5271643400192261</v>
       </c>
       <c r="W276" t="n">
-        <v>0.0486493892967701</v>
+        <v>0.001948653720319271</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.519752025604248</v>
       </c>
       <c r="V277" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.876572847366333</v>
       </c>
       <c r="W277" t="n">
-        <v>0.02180134132504463</v>
+        <v>0.1273210942745209</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5181660652160645</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8905169367790222</v>
       </c>
       <c r="W278" t="n">
-        <v>0.08068487048149109</v>
+        <v>0.1386451721191406</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5186748504638672</v>
       </c>
       <c r="V279" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5209416747093201</v>
       </c>
       <c r="W279" t="n">
-        <v>0.002448172308504581</v>
+        <v>5.138492269907147e-06</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.5118470191955566</v>
       </c>
       <c r="V280" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.4024791419506073</v>
       </c>
       <c r="W280" t="n">
-        <v>0.002574302954599261</v>
+        <v>0.01196133252233267</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5200009346008301</v>
       </c>
       <c r="V281" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.870536208152771</v>
       </c>
       <c r="W281" t="n">
-        <v>0.01802443526685238</v>
+        <v>0.1228749752044678</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4067981243133545</v>
       </c>
       <c r="V282" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.8634980320930481</v>
       </c>
       <c r="W282" t="n">
-        <v>0.009662874042987823</v>
+        <v>0.2085748016834259</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3972511291503906</v>
       </c>
       <c r="V283" t="n">
-        <v>0.699232816696167</v>
+        <v>0.8661314845085144</v>
       </c>
       <c r="W283" t="n">
-        <v>0.09119293838739395</v>
+        <v>0.2198487818241119</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3987851142883301</v>
       </c>
       <c r="V284" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.8585565686225891</v>
       </c>
       <c r="W284" t="n">
-        <v>0.03149070218205452</v>
+        <v>0.2113897949457169</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3904919624328613</v>
       </c>
       <c r="V285" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.5231196880340576</v>
       </c>
       <c r="W285" t="n">
-        <v>0.000159310337039642</v>
+        <v>0.01759011298418045</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3974740505218506</v>
       </c>
       <c r="V286" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.5230221748352051</v>
       </c>
       <c r="W286" t="n">
-        <v>0.01158830057829618</v>
+        <v>0.01576233096420765</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3979330062866211</v>
       </c>
       <c r="V287" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.5088387727737427</v>
       </c>
       <c r="W287" t="n">
-        <v>0.03587457910180092</v>
+        <v>0.01230008900165558</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3974449634552002</v>
       </c>
       <c r="V288" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.8621922135353088</v>
       </c>
       <c r="W288" t="n">
-        <v>0.0003645167453214526</v>
+        <v>0.2159900069236755</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4038360118865967</v>
       </c>
       <c r="V289" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.5232453346252441</v>
       </c>
       <c r="W289" t="n">
-        <v>0.0005935693625360727</v>
+        <v>0.01425858680158854</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3921170234680176</v>
       </c>
       <c r="V290" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.4021815657615662</v>
       </c>
       <c r="W290" t="n">
-        <v>0.0006509812665171921</v>
+        <v>0.000101295008789748</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3896939754486084</v>
       </c>
       <c r="V291" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.5666221976280212</v>
       </c>
       <c r="W291" t="n">
-        <v>0.1973839998245239</v>
+        <v>0.03130359575152397</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3986268043518066</v>
       </c>
       <c r="V292" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.5180466771125793</v>
       </c>
       <c r="W292" t="n">
-        <v>0.08656304329633713</v>
+        <v>0.01426110602915287</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3971590995788574</v>
       </c>
       <c r="V293" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.8854640126228333</v>
       </c>
       <c r="W293" t="n">
-        <v>0.01165324822068214</v>
+        <v>0.2384416908025742</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.4373650550842285</v>
       </c>
       <c r="V294" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.8657316565513611</v>
       </c>
       <c r="W294" t="n">
-        <v>0.0005806637345813215</v>
+        <v>0.1834979504346848</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3938009738922119</v>
       </c>
       <c r="V295" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.8731275200843811</v>
       </c>
       <c r="W295" t="n">
-        <v>0.01210224535316229</v>
+        <v>0.2297539412975311</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3932690620422363</v>
       </c>
       <c r="V296" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.3992190062999725</v>
       </c>
       <c r="W296" t="n">
-        <v>0.09350220859050751</v>
+        <v>3.540183752193116e-05</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3964509963989258</v>
       </c>
       <c r="V297" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.4010368287563324</v>
       </c>
       <c r="W297" t="n">
-        <v>0.004539728630334139</v>
+        <v>2.102985854435246e-05</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3948540687561035</v>
       </c>
       <c r="V298" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.3992117643356323</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0005151538643985987</v>
+        <v>1.89895108633209e-05</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.3974549770355225</v>
       </c>
       <c r="V299" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.5189206004142761</v>
       </c>
       <c r="W299" t="n">
-        <v>0.01614071428775787</v>
+        <v>0.01475389767438173</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4467239379882812</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.8784353137016296</v>
       </c>
       <c r="W300" t="n">
-        <v>0.0008517118403688073</v>
+        <v>0.1863747090101242</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.3982679843902588</v>
       </c>
       <c r="V301" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.3998637199401855</v>
       </c>
       <c r="W301" t="n">
-        <v>0.09058625251054764</v>
+        <v>2.546371888456633e-06</v>
       </c>
     </row>
     <row r="302" spans="1:23">
